--- a/Data/SpecialItemDefine.xlsx
+++ b/Data/SpecialItemDefine.xlsx
@@ -27,30 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>level</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>iconResource</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>month_card</t>
-  </si>
-  <si>
-    <t>month_card_icon</t>
-  </si>
-  <si>
-    <t>month_card吧啦吧啦吧啦吧啦吧啦吧啦</t>
   </si>
 </sst>
 </file>
@@ -1198,53 +1183,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="4.70192307692308" customWidth="1"/>
-    <col min="2" max="2" width="5.39423076923077" customWidth="1"/>
-    <col min="3" max="3" width="14.6730769230769" customWidth="1"/>
-    <col min="4" max="4" width="19.5961538461538" customWidth="1"/>
-    <col min="5" max="5" width="43.3942307692308" customWidth="1"/>
+    <col min="2" max="2" width="14.6730769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
